--- a/exports/UD_French-Sequoia/VERB-indirect-onj.xlsx
+++ b/exports/UD_French-Sequoia/VERB-indirect-onj.xlsx
@@ -705,7 +705,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lionel Jospin écrit : "Il m'a été donné de dire à plusieurs reprises combien les persécutions antisémites et les actes qui en ont </t>
+          <t xml:space="preserve">Lionel Jospin écrit : ""Il m'a été donné de dire à plusieurs reprises combien les persécutions antisémites et les actes qui en ont </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> revêtaient un caractère particulier aux yeux de l'histoire et de la morale". </t>
+          <t xml:space="preserve"> revêtaient un caractère particulier aux yeux de l'histoire et de la morale"". </t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lionel Jospin écrit : "Il m'a été </t>
+          <t xml:space="preserve">Lionel Jospin écrit : ""Il m'a été </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> de dire à plusieurs reprises combien les persécutions antisémites et les actes qui en ont découlé revêtaient un caractère particulier aux yeux de l'histoire et de la morale". </t>
+          <t xml:space="preserve"> de dire à plusieurs reprises combien les persécutions antisémites et les actes qui en ont découlé revêtaient un caractère particulier aux yeux de l'histoire et de la morale"". </t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Comme l'attaquant tenait encore à jouer, il refusa et examina d'autres possibilités : "Le Mans, Valence, Sedan et un quatrième club dont je dois taire le nom, me </t>
+          <t xml:space="preserve">Comme l'attaquant tenait encore à jouer, il refusa et examina d'autres possibilités : ""Le Mans, Valence, Sedan et un quatrième club dont je dois taire le nom, me </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t xml:space="preserve">J'ai noté, Monsieur le Président, que vous avez parlé de "notre anniversaire commun", et permettez-moi de vous </t>
+          <t xml:space="preserve">J'ai noté, Monsieur le Président, que vous avez parlé de ""notre anniversaire commun"", et permettez-moi de vous </t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t xml:space="preserve">J'ai noté, Monsieur le Président, que vous avez parlé de "notre anniversaire commun", et </t>
+          <t xml:space="preserve">J'ai noté, Monsieur le Président, que vous avez parlé de ""notre anniversaire commun"", et </t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> les appelations de "clérical cléricalisant", "cléricafard", "cléricanaille", "calotin pur-sang", "jésuitard", "grand avaleur de bon Dieu", "vieille peau fermée à nos idées", "rallié à la République, n'en porte pas moins un nom à particule". </t>
+          <t xml:space="preserve"> les appelations de ""clérical cléricalisant"", ""cléricafard"", ""cléricanaille"", ""calotin pur-sang"", ""jésuitard"", ""grand avaleur de bon Dieu"", ""vieille peau fermée à nos idées"", ""rallié à la République, n'en porte pas moins un nom à particule"". </t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">, parasitée par les conséquences de l'affaire Schuller-Maréchal, à la fin de 1994, puis par les fausses pistes distillées par un ou plusieurs "corbeaux". </t>
+          <t xml:space="preserve">, parasitée par les conséquences de l'affaire Schuller-Maréchal, à la fin de 1994, puis par les fausses pistes distillées par un ou plusieurs ""corbeaux"". </t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "le couteau sous la gorge". </t>
+          <t xml:space="preserve"> ""le couteau sous la gorge"". </t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t xml:space="preserve">- Questionné le 11 mai 1998, Jean-Claude Méry avait, pour sa part, reconnu avoir "demandé 1,5% du marché, qui [lui] ont été </t>
+          <t xml:space="preserve">- Questionné le 11 mai 1998, Jean-Claude Méry avait, pour sa part, reconnu avoir ""demandé 1,5% du marché, qui [lui] ont été </t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> en Suisse", mais il n'avait pas évoqué de destination politique. </t>
+          <t xml:space="preserve"> en Suisse"", mais il n'avait pas évoqué de destination politique. </t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette note -qui est à l'origine d'une information judiciaire ouverte et confiée à la juge d'instruction Isabelle Prévost-Desprez- ne s'attarde pas réellement sur le paiement d'une hypothétique rançon, mais détaille plutôt un système de "rétro-commissions" qui y serait </t>
+          <t xml:space="preserve">Cette note -qui est à l'origine d'une information judiciaire ouverte et confiée à la juge d'instruction Isabelle Prévost-Desprez- ne s'attarde pas réellement sur le paiement d'une hypothétique rançon, mais détaille plutôt un système de ""rétro-commissions"" qui y serait </t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> cette liste, je vais être obligé de la fournir ". </t>
+          <t xml:space="preserve"> cette liste, je vais être obligé de la fournir "". </t>
         </is>
       </c>
     </row>
